--- a/samples_wind/plot/date_info_aftertypo.xlsx
+++ b/samples_wind/plot/date_info_aftertypo.xlsx
@@ -884,8 +884,8 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -904,8 +904,8 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -924,8 +924,8 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -944,8 +944,8 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -964,8 +964,8 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -984,8 +984,8 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -1004,8 +1004,8 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -1024,8 +1024,8 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -1044,8 +1044,8 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
@@ -1084,8 +1084,8 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '상대습도', '풍향',
-       '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정', '기온'],
+          <t>Index(['모델명', '시리얼', '전송시간', '등록일자', '기관명', '초미세먼지', '미세먼지', '기온', '상대습도',
+       '풍향', '풍속', '돌풍풍향', '돌풍풍속', '초미세먼지보정', '미세먼지보정'],
       dtype='object')</t>
         </is>
       </c>
